--- a/Project Timeline Gantt Chart.xlsx
+++ b/Project Timeline Gantt Chart.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D27021A-A62B-4789-A113-C4B256275556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5770B8CA-962C-46F3-91EB-9BE96B6B17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14889" tabRatio="415" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>Project start date:</t>
   </si>
@@ -349,19 +349,7 @@
     <t>Data Understanding</t>
   </si>
   <si>
-    <t>Hypothesis Identification</t>
-  </si>
-  <si>
-    <t>Detailed Project Prososal (DPP Report)</t>
-  </si>
-  <si>
     <t>Hotel reservation cancellation papers</t>
-  </si>
-  <si>
-    <t>Best Classification Algorithms</t>
-  </si>
-  <si>
-    <t>RF, DCS, KNN, K-Means, Naïve Bayes</t>
   </si>
   <si>
     <t>Cross Validation Techniques</t>
@@ -371,15 +359,6 @@
   </si>
   <si>
     <t>Understanding visualization Plots</t>
-  </si>
-  <si>
-    <t>Plot histograms for all columns</t>
-  </si>
-  <si>
-    <t>learn code for plotting the charts</t>
-  </si>
-  <si>
-    <t>Plot bar plot for categorical columns</t>
   </si>
   <si>
     <t>Data Preparation and Visualization</t>
@@ -397,28 +376,34 @@
     <t>Split train and test</t>
   </si>
   <si>
-    <t>GridSearch for Decision Tree Classifier</t>
-  </si>
-  <si>
-    <t>Decision tree classifier (Best Params)</t>
-  </si>
-  <si>
-    <t>GridSearch for Random Forest Classifier</t>
-  </si>
-  <si>
-    <t>Random Forest (Best Params)</t>
-  </si>
-  <si>
-    <t>Learn DCT and Random Forest theory and code</t>
-  </si>
-  <si>
-    <t>Hyperparameter Tuning on ML algorithms</t>
-  </si>
-  <si>
     <t>Literature Review Search</t>
   </si>
   <si>
-    <t>Data Analysis and Preparation</t>
+    <t>RF, DCS, KNN, Logistic Regression</t>
+  </si>
+  <si>
+    <t>RQ's and Hypothesis Identification</t>
+  </si>
+  <si>
+    <t>Data Imbalance and Solutions</t>
+  </si>
+  <si>
+    <t>ML algorithms on Over-Sampled data with GridSearch</t>
+  </si>
+  <si>
+    <t>ML algorithms on Under-Sampled data with GridSearch</t>
+  </si>
+  <si>
+    <t>Test on unseen data</t>
+  </si>
+  <si>
+    <t>Plotting Visualizations</t>
+  </si>
+  <si>
+    <t>Research Methodology</t>
+  </si>
+  <si>
+    <t>Conclusion and Future Work</t>
   </si>
 </sst>
 </file>
@@ -429,7 +414,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="8" tint="-0.499984740745262"/>
@@ -708,8 +693,16 @@
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="5"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -777,7 +770,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1345,7 +1338,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1635,55 +1628,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="26" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,9 +1649,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="33" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1725,9 +1667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="39" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1736,9 +1675,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="42" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1751,9 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="31" fillId="0" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="36" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1770,16 +1703,58 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="29" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="36" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="42" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="0" fillId="0" borderId="35" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1798,7 +1773,292 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1809,20 +2069,6 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
@@ -1970,235 +2216,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
       <border>
-        <right/>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="8" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="5" formatCode="#,##0;\-#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2210,12 +2232,19 @@
           <bgColor theme="6" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2386,22 +2415,22 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="5" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="37"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="44"/>
+      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="firstRowStripe" dxfId="42"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="41"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="40"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="lastColumn" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="39"/>
+      <tableStyleElement type="headerRow" dxfId="38"/>
+      <tableStyleElement type="totalRow" dxfId="37"/>
+      <tableStyleElement type="firstColumn" dxfId="36"/>
+      <tableStyleElement type="lastColumn" dxfId="35"/>
+      <tableStyleElement type="firstRowStripe" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="32"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="31"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2617,9 +2646,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GANTT!$B$8:$B$52</c:f>
+              <c:f>GANTT!$B$8:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Data Source and Project Idea</c:v>
                 </c:pt>
@@ -2627,132 +2656,93 @@
                   <c:v>Data Understanding</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hypothesis Identification</c:v>
+                  <c:v>RQ's and Hypothesis Identification</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Detailed Project Prososal (DPP Report)</c:v>
+                  <c:v>Hotel reservation cancellation papers</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DPP Submission</c:v>
+                  <c:v>Data Imbalance and Solutions</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hotel reservation cancellation papers</c:v>
+                  <c:v>RF, DCS, KNN, Logistic Regression</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Best Classification Algorithms</c:v>
+                  <c:v>Cross Validation Techniques</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>RF, DCS, KNN, K-Means, Naïve Bayes</c:v>
+                  <c:v>Deal with missed values in Columns</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Cross Validation Techniques</c:v>
+                  <c:v>Drop any null value rows</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Deal with missed values in Columns</c:v>
+                  <c:v>Understanding visualization Plots</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Drop any null value rows</c:v>
+                  <c:v>Plotting Visualizations</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Understanding visualization Plots</c:v>
+                  <c:v>learn code for one hot encoding</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>learn code for plotting the charts</c:v>
+                  <c:v>One hot encode on categorical coumns</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Plot histograms for all columns</c:v>
+                  <c:v>Split train and test</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Plot bar plot for categorical columns</c:v>
+                  <c:v>Standardize the data</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>learn code for one hot encoding</c:v>
+                  <c:v>ML algorithms on Over-Sampled data with GridSearch</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>One hot encode on categorical coumns</c:v>
+                  <c:v>ML algorithms on Under-Sampled data with GridSearch</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Split train and test</c:v>
+                  <c:v>Test on unseen data</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Standardize the data</c:v>
+                  <c:v>Performance Comparision</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Learn DCT and Random Forest theory and code</c:v>
+                  <c:v>Abstract</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>GridSearch for Decision Tree Classifier</c:v>
+                  <c:v>Introduction</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Decision tree classifier (Best Params)</c:v>
+                  <c:v>Literature Review Search</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>GridSearch for Random Forest Classifier</c:v>
+                  <c:v>Research Methodology</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Random Forest (Best Params)</c:v>
+                  <c:v>Results</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Test unseen data on best model</c:v>
+                  <c:v>Conclusion and Future Work</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Interim Progress Report</c:v>
+                  <c:v>References</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>IPR Submission</c:v>
+                  <c:v>Appendices</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Hyperparameter Tuning on ML algorithms</c:v>
+                  <c:v>Plagarism Check</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Performance Comparision</c:v>
+                  <c:v>Final Edits and Review</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Test unseen data on best model</c:v>
+                  <c:v>Final Plagarism Check</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Abstract</c:v>
+                  <c:v>Meet with Supervisor</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Introduction</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Literature Review Search</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Data Analysis and Preparation</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Model Building</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Results</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Conclusion</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Future Work</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>References</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Appendices</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Plagarism Check</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Final Edits and Review</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Final Plagarism Check</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Meet with Supervisor</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>FPR Submission</c:v>
                 </c:pt>
               </c:strCache>
@@ -2760,10 +2750,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GANTT!$D$8:$D$52</c:f>
+              <c:f>GANTT!$D$8:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>44980</c:v>
                 </c:pt>
@@ -2774,129 +2764,90 @@
                   <c:v>44982</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44983</c:v>
+                  <c:v>44995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44992</c:v>
+                  <c:v>44998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44995</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44996</c:v>
+                  <c:v>45017</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44996</c:v>
+                  <c:v>45019</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44996</c:v>
+                  <c:v>45019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45002</c:v>
+                  <c:v>45031</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45002</c:v>
+                  <c:v>45031</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45003</c:v>
+                  <c:v>45037</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45004</c:v>
+                  <c:v>45037</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45005</c:v>
+                  <c:v>45041</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45005</c:v>
+                  <c:v>45041</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45007</c:v>
+                  <c:v>45042</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45008</c:v>
+                  <c:v>45062</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45009</c:v>
+                  <c:v>45078</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45009</c:v>
+                  <c:v>45080</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45010</c:v>
+                  <c:v>45117</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45014</c:v>
+                  <c:v>45118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45014</c:v>
+                  <c:v>45121</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45015</c:v>
+                  <c:v>45128</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45015</c:v>
+                  <c:v>45139</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45016</c:v>
+                  <c:v>45150</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45031</c:v>
+                  <c:v>45154</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45047</c:v>
+                  <c:v>45155</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45060</c:v>
+                  <c:v>45157</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45068</c:v>
+                  <c:v>45158</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45068</c:v>
+                  <c:v>45163</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>45070</c:v>
+                  <c:v>45164</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>45071</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45074</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45089</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>45098</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45108</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45111</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45112</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45112</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45113</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45114</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45115</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45123</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>45124</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>45166</c:v>
                 </c:pt>
               </c:numCache>
@@ -2934,9 +2885,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>GANTT!$B$8:$B$52</c:f>
+              <c:f>GANTT!$B$8:$B$39</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>Data Source and Project Idea</c:v>
                 </c:pt>
@@ -2944,132 +2895,93 @@
                   <c:v>Data Understanding</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Hypothesis Identification</c:v>
+                  <c:v>RQ's and Hypothesis Identification</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Detailed Project Prososal (DPP Report)</c:v>
+                  <c:v>Hotel reservation cancellation papers</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>DPP Submission</c:v>
+                  <c:v>Data Imbalance and Solutions</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Hotel reservation cancellation papers</c:v>
+                  <c:v>RF, DCS, KNN, Logistic Regression</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Best Classification Algorithms</c:v>
+                  <c:v>Cross Validation Techniques</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>RF, DCS, KNN, K-Means, Naïve Bayes</c:v>
+                  <c:v>Deal with missed values in Columns</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Cross Validation Techniques</c:v>
+                  <c:v>Drop any null value rows</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Deal with missed values in Columns</c:v>
+                  <c:v>Understanding visualization Plots</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Drop any null value rows</c:v>
+                  <c:v>Plotting Visualizations</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Understanding visualization Plots</c:v>
+                  <c:v>learn code for one hot encoding</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>learn code for plotting the charts</c:v>
+                  <c:v>One hot encode on categorical coumns</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Plot histograms for all columns</c:v>
+                  <c:v>Split train and test</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Plot bar plot for categorical columns</c:v>
+                  <c:v>Standardize the data</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>learn code for one hot encoding</c:v>
+                  <c:v>ML algorithms on Over-Sampled data with GridSearch</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>One hot encode on categorical coumns</c:v>
+                  <c:v>ML algorithms on Under-Sampled data with GridSearch</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Split train and test</c:v>
+                  <c:v>Test on unseen data</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Standardize the data</c:v>
+                  <c:v>Performance Comparision</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Learn DCT and Random Forest theory and code</c:v>
+                  <c:v>Abstract</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>GridSearch for Decision Tree Classifier</c:v>
+                  <c:v>Introduction</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Decision tree classifier (Best Params)</c:v>
+                  <c:v>Literature Review Search</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>GridSearch for Random Forest Classifier</c:v>
+                  <c:v>Research Methodology</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Random Forest (Best Params)</c:v>
+                  <c:v>Results</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Test unseen data on best model</c:v>
+                  <c:v>Conclusion and Future Work</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Interim Progress Report</c:v>
+                  <c:v>References</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>IPR Submission</c:v>
+                  <c:v>Appendices</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Hyperparameter Tuning on ML algorithms</c:v>
+                  <c:v>Plagarism Check</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Performance Comparision</c:v>
+                  <c:v>Final Edits and Review</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Test unseen data on best model</c:v>
+                  <c:v>Final Plagarism Check</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Abstract</c:v>
+                  <c:v>Meet with Supervisor</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Introduction</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Literature Review Search</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Data Analysis and Preparation</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Model Building</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Results</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Conclusion</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Future Work</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>References</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Appendices</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Plagarism Check</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Final Edits and Review</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Final Plagarism Check</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>Meet with Supervisor</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>FPR Submission</c:v>
                 </c:pt>
               </c:strCache>
@@ -3077,10 +2989,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>GANTT!$F$8:$F$52</c:f>
+              <c:f>GANTT!$F$8:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>#,##0_);\(#,##0\)</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3091,82 +3003,82 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>143</c:v>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>143</c:v>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>143</c:v>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="27">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1</c:v>
@@ -3175,45 +3087,6 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="44">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4007,8 +3880,8 @@
     <xdr:to>
       <xdr:col>63</xdr:col>
       <xdr:colOff>197687</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>98588</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4037,8 +3910,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0319CA11-1FB9-4954-9FBF-EF613A2809C6}" name="Milestones345" displayName="Milestones345" ref="B6:F52" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="26" tableBorderDxfId="6">
-  <autoFilter ref="B6:F52" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0319CA11-1FB9-4954-9FBF-EF613A2809C6}" name="Milestones345" displayName="Milestones345" ref="B6:F39" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="B6:F39" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4046,11 +3919,11 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{667E4F4F-FB0B-44E7-81DA-B17E2BFD23F8}" name="Milestone description" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{F7A6568D-8125-4CC0-B2A7-A3CE83684A12}" name="Progress" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A1BE7B19-F397-49E4-8276-C434D5E0F4CD}" name="Start" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E057AAE6-6F90-44C0-939A-B63028EE513A}" name="End" dataDxfId="2" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{2AE9C566-11FF-4E3D-852D-D549C0E22CF4}" name="Days" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{667E4F4F-FB0B-44E7-81DA-B17E2BFD23F8}" name="Milestone description" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{F7A6568D-8125-4CC0-B2A7-A3CE83684A12}" name="Progress" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{A1BE7B19-F397-49E4-8276-C434D5E0F4CD}" name="Start" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{E057AAE6-6F90-44C0-939A-B63028EE513A}" name="End" dataDxfId="24" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{2AE9C566-11FF-4E3D-852D-D549C0E22CF4}" name="Days" dataDxfId="23">
       <calculatedColumnFormula>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4064,7 +3937,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Milestones34" displayName="Milestones34" ref="B8:G64" totalsRowShown="0" headerRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8EE7DA96-2148-4820-AB9C-230AD0CA6702}" name="Milestones34" displayName="Milestones34" ref="B8:G64" totalsRowShown="0" headerRowDxfId="22">
   <autoFilter ref="B8:G64" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4078,8 +3951,8 @@
     <tableColumn id="3" xr3:uid="{76EB9444-C31F-4CC3-88B2-0202B5893122}" name="Assigned to"/>
     <tableColumn id="4" xr3:uid="{52A1E4A6-5AE1-47AB-95DD-0B2C1394989A}" name="Progress"/>
     <tableColumn id="5" xr3:uid="{0671DF77-A989-41EA-819F-AF0A8A45AB0F}" name="Start"/>
-    <tableColumn id="2" xr3:uid="{4A169FFA-8E2A-44FF-BB78-28093009BC23}" name="End" dataDxfId="24" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{B1E97C69-5901-4994-8267-A58A1A9D9898}" name="Days" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{4A169FFA-8E2A-44FF-BB78-28093009BC23}" name="End" dataDxfId="21" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{B1E97C69-5901-4994-8267-A58A1A9D9898}" name="Days" dataDxfId="20">
       <calculatedColumnFormula>Milestones34[[#This Row],[End]]-Milestones34[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4093,7 +3966,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="Milestones3" displayName="Milestones3" ref="B8:F34" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{35262E6B-D397-41BC-8148-E03FF3C288A5}" name="Milestones3" displayName="Milestones3" ref="B8:F34" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4118,7 +3991,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{70B51325-D3C3-4A05-BAB3-7A7400707A14}" name="Milestones" displayName="Milestones" ref="B8:F34" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="B8:F34" xr:uid="{29E5A880-80D5-4B65-B5FB-8FB3913D3D27}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4491,10 +4364,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BK53"/>
+  <dimension ref="A1:BK40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="72" workbookViewId="0">
-      <selection activeCell="BP22" sqref="BP22"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="72" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="30.1" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4509,22 +4382,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:63" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
     </row>
     <row r="2" spans="1:63" ht="32.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
       <c r="G2" s="43"/>
       <c r="H2" s="43"/>
       <c r="I2" s="69"/>
@@ -4723,19 +4596,19 @@
     </row>
     <row r="6" spans="1:63" ht="26.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
-      <c r="B6" s="128" t="s">
+      <c r="B6" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="129" t="s">
+      <c r="D6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="129" t="s">
+      <c r="E6" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="130" t="s">
+      <c r="F6" s="114" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="110"/>
@@ -4797,11 +4670,11 @@
       <c r="BK6" s="98"/>
     </row>
     <row r="7" spans="1:63" ht="2.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="137"/>
-      <c r="C7" s="138"/>
-      <c r="D7" s="139"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="136">
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="119">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
@@ -4863,22 +4736,22 @@
       <c r="BK7" s="24"/>
     </row>
     <row r="8" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="141" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="126" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="145">
+      <c r="C8" s="150">
         <v>1</v>
       </c>
-      <c r="D8" s="146">
+      <c r="D8" s="127">
         <v>44980</v>
       </c>
-      <c r="E8" s="146">
+      <c r="E8" s="127">
         <v>44981</v>
       </c>
-      <c r="F8" s="147">
+      <c r="F8" s="128">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>2</v>
       </c>
@@ -4941,20 +4814,20 @@
       <c r="BK8" s="30"/>
     </row>
     <row r="9" spans="1:63" s="1" customFormat="1" ht="25.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="118"/>
-      <c r="B9" s="132" t="s">
+      <c r="A9" s="142"/>
+      <c r="B9" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="125">
+      <c r="C9" s="151">
         <v>1</v>
       </c>
-      <c r="D9" s="126">
+      <c r="D9" s="111">
         <v>44980</v>
       </c>
-      <c r="E9" s="126">
+      <c r="E9" s="111">
         <v>44981</v>
       </c>
-      <c r="F9" s="148">
+      <c r="F9" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>2</v>
       </c>
@@ -5016,21 +4889,21 @@
       <c r="BJ9" s="30"/>
       <c r="BK9" s="30"/>
     </row>
-    <row r="10" spans="1:63" s="1" customFormat="1" ht="27.85" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="118"/>
-      <c r="B10" s="132" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="125">
+    <row r="10" spans="1:63" s="1" customFormat="1" ht="27.85" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="142"/>
+      <c r="B10" s="116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="151">
         <v>1</v>
       </c>
-      <c r="D10" s="126">
+      <c r="D10" s="111">
         <v>44982</v>
       </c>
-      <c r="E10" s="126">
+      <c r="E10" s="111">
         <v>44982</v>
       </c>
-      <c r="F10" s="148">
+      <c r="F10" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>1</v>
       </c>
@@ -5092,23 +4965,25 @@
       <c r="BJ10" s="30"/>
       <c r="BK10" s="30"/>
     </row>
-    <row r="11" spans="1:63" s="1" customFormat="1" ht="23.8" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="118"/>
-      <c r="B11" s="132" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="125">
+    <row r="11" spans="1:63" s="1" customFormat="1" ht="32.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="150">
         <v>1</v>
       </c>
-      <c r="D11" s="126">
-        <v>44983</v>
-      </c>
-      <c r="E11" s="126">
-        <v>44987</v>
-      </c>
-      <c r="F11" s="148">
+      <c r="D11" s="127">
+        <v>44995</v>
+      </c>
+      <c r="E11" s="127">
+        <v>44997</v>
+      </c>
+      <c r="F11" s="128">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="109"/>
       <c r="H11" s="30"/>
@@ -5168,23 +5043,23 @@
       <c r="BJ11" s="30"/>
       <c r="BK11" s="30"/>
     </row>
-    <row r="12" spans="1:63" s="1" customFormat="1" ht="26.5" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
-      <c r="B12" s="149" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="150">
+    <row r="12" spans="1:63" s="1" customFormat="1" ht="31.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="144"/>
+      <c r="B12" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="152">
         <v>1</v>
       </c>
-      <c r="D12" s="151">
-        <v>44992</v>
-      </c>
-      <c r="E12" s="151">
-        <v>44992</v>
-      </c>
-      <c r="F12" s="152">
+      <c r="D12" s="111">
+        <v>44998</v>
+      </c>
+      <c r="E12" s="111">
+        <v>44999</v>
+      </c>
+      <c r="F12" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="109"/>
       <c r="H12" s="30"/>
@@ -5244,25 +5119,23 @@
       <c r="BJ12" s="30"/>
       <c r="BK12" s="30"/>
     </row>
-    <row r="13" spans="1:63" s="1" customFormat="1" ht="32.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="120" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="144" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="145">
+    <row r="13" spans="1:63" s="1" customFormat="1" ht="34" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="144"/>
+      <c r="B13" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="152">
         <v>1</v>
       </c>
-      <c r="D13" s="146">
-        <v>44995</v>
-      </c>
-      <c r="E13" s="146">
-        <v>44995</v>
-      </c>
-      <c r="F13" s="147">
+      <c r="D13" s="111">
+        <v>45000</v>
+      </c>
+      <c r="E13" s="111">
+        <v>45015</v>
+      </c>
+      <c r="F13" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G13" s="109"/>
       <c r="H13" s="30"/>
@@ -5322,23 +5195,23 @@
       <c r="BJ13" s="30"/>
       <c r="BK13" s="30"/>
     </row>
-    <row r="14" spans="1:63" s="1" customFormat="1" ht="31.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="132" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="125">
-        <v>0.7</v>
-      </c>
-      <c r="D14" s="126">
-        <v>44996</v>
-      </c>
-      <c r="E14" s="126">
-        <v>45138</v>
-      </c>
-      <c r="F14" s="148">
+    <row r="14" spans="1:63" s="1" customFormat="1" ht="31.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="145"/>
+      <c r="B14" s="130" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="152">
+        <v>1</v>
+      </c>
+      <c r="D14" s="131">
+        <v>45017</v>
+      </c>
+      <c r="E14" s="131">
+        <v>45018</v>
+      </c>
+      <c r="F14" s="132">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>143</v>
+        <v>2</v>
       </c>
       <c r="G14" s="109"/>
       <c r="H14" s="30"/>
@@ -5398,23 +5271,25 @@
       <c r="BJ14" s="30"/>
       <c r="BK14" s="30"/>
     </row>
-    <row r="15" spans="1:63" s="1" customFormat="1" ht="34" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="121"/>
-      <c r="B15" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D15" s="126">
-        <v>44996</v>
-      </c>
-      <c r="E15" s="126">
-        <v>45138</v>
-      </c>
-      <c r="F15" s="148">
+    <row r="15" spans="1:63" s="1" customFormat="1" ht="36" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="137" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="123" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="152">
+        <v>1</v>
+      </c>
+      <c r="D15" s="124">
+        <v>45019</v>
+      </c>
+      <c r="E15" s="133">
+        <v>45019</v>
+      </c>
+      <c r="F15" s="134">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="G15" s="109"/>
       <c r="H15" s="30"/>
@@ -5474,23 +5349,23 @@
       <c r="BJ15" s="30"/>
       <c r="BK15" s="30"/>
     </row>
-    <row r="16" spans="1:63" s="1" customFormat="1" ht="31.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="122"/>
-      <c r="B16" s="149" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="150">
-        <v>0.8</v>
-      </c>
-      <c r="D16" s="151">
-        <v>44996</v>
-      </c>
-      <c r="E16" s="151">
-        <v>45138</v>
-      </c>
-      <c r="F16" s="152">
+    <row r="16" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="137"/>
+      <c r="B16" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="153">
+        <v>1</v>
+      </c>
+      <c r="D16" s="124">
+        <v>45019</v>
+      </c>
+      <c r="E16" s="133">
+        <v>45019</v>
+      </c>
+      <c r="F16" s="135">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="G16" s="109"/>
       <c r="H16" s="30"/>
@@ -5550,25 +5425,25 @@
       <c r="BJ16" s="30"/>
       <c r="BK16" s="30"/>
     </row>
-    <row r="17" spans="1:63" s="1" customFormat="1" ht="36" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="140" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="141">
+    <row r="17" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="150">
         <v>1</v>
       </c>
-      <c r="D17" s="142">
-        <v>45002</v>
-      </c>
-      <c r="E17" s="153">
-        <v>45002</v>
-      </c>
-      <c r="F17" s="154">
+      <c r="D17" s="127">
+        <v>45031</v>
+      </c>
+      <c r="E17" s="127">
+        <v>45036</v>
+      </c>
+      <c r="F17" s="128">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G17" s="109"/>
       <c r="H17" s="30"/>
@@ -5628,23 +5503,23 @@
       <c r="BJ17" s="30"/>
       <c r="BK17" s="30"/>
     </row>
-    <row r="18" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="124"/>
-      <c r="B18" s="133" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="134">
+    <row r="18" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="137"/>
+      <c r="B18" s="116" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="151">
         <v>1</v>
       </c>
-      <c r="D18" s="135">
-        <v>45002</v>
-      </c>
-      <c r="E18" s="135">
-        <v>45002</v>
-      </c>
-      <c r="F18" s="155">
+      <c r="D18" s="127">
+        <v>45031</v>
+      </c>
+      <c r="E18" s="127">
+        <v>45036</v>
+      </c>
+      <c r="F18" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G18" s="109"/>
       <c r="H18" s="30"/>
@@ -5704,329 +5579,329 @@
       <c r="BJ18" s="30"/>
       <c r="BK18" s="30"/>
     </row>
-    <row r="19" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="144" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="145">
+    <row r="19" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="137"/>
+      <c r="B19" s="116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="151">
         <v>1</v>
       </c>
-      <c r="D19" s="146">
-        <v>45003</v>
-      </c>
-      <c r="E19" s="146">
-        <v>45003</v>
-      </c>
-      <c r="F19" s="147">
+      <c r="D19" s="111">
+        <v>45037</v>
+      </c>
+      <c r="E19" s="111">
+        <v>45038</v>
+      </c>
+      <c r="F19" s="129">
+        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="107"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="17"/>
+      <c r="AO19" s="17"/>
+      <c r="AP19" s="17"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
+      <c r="AT19" s="17"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="17"/>
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="17"/>
+      <c r="AY19" s="17"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="17"/>
+      <c r="BB19" s="17"/>
+      <c r="BC19" s="17"/>
+      <c r="BD19" s="17"/>
+      <c r="BE19" s="17"/>
+      <c r="BF19" s="17"/>
+      <c r="BG19" s="17"/>
+      <c r="BH19" s="17"/>
+      <c r="BI19" s="17"/>
+      <c r="BJ19" s="17"/>
+      <c r="BK19" s="17"/>
+    </row>
+    <row r="20" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="138"/>
+      <c r="B20" s="130" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="151">
+        <v>1</v>
+      </c>
+      <c r="D20" s="111">
+        <v>45037</v>
+      </c>
+      <c r="E20" s="111">
+        <v>45038</v>
+      </c>
+      <c r="F20" s="132">
+        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
+        <v>2</v>
+      </c>
+      <c r="G20" s="107"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="17"/>
+      <c r="AO20" s="17"/>
+      <c r="AP20" s="17"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
+      <c r="AT20" s="17"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="17"/>
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="17"/>
+      <c r="AY20" s="17"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="17"/>
+      <c r="BB20" s="17"/>
+      <c r="BC20" s="17"/>
+      <c r="BD20" s="17"/>
+      <c r="BE20" s="17"/>
+      <c r="BF20" s="17"/>
+      <c r="BG20" s="17"/>
+      <c r="BH20" s="17"/>
+      <c r="BI20" s="17"/>
+      <c r="BJ20" s="17"/>
+      <c r="BK20" s="17"/>
+    </row>
+    <row r="21" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="151">
+        <v>1</v>
+      </c>
+      <c r="D21" s="127">
+        <v>45041</v>
+      </c>
+      <c r="E21" s="127">
+        <v>45041</v>
+      </c>
+      <c r="F21" s="128">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>1</v>
       </c>
-      <c r="G19" s="109"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="30"/>
-      <c r="R19" s="30"/>
-      <c r="S19" s="30"/>
-      <c r="T19" s="30"/>
-      <c r="U19" s="30"/>
-      <c r="V19" s="30"/>
-      <c r="W19" s="30"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="30"/>
-      <c r="Z19" s="30"/>
-      <c r="AA19" s="30"/>
-      <c r="AB19" s="30"/>
-      <c r="AC19" s="30"/>
-      <c r="AD19" s="30"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="30"/>
-      <c r="AG19" s="30"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="30"/>
-      <c r="AL19" s="30"/>
-      <c r="AM19" s="30"/>
-      <c r="AN19" s="30"/>
-      <c r="AO19" s="30"/>
-      <c r="AP19" s="30"/>
-      <c r="AQ19" s="30"/>
-      <c r="AR19" s="30"/>
-      <c r="AS19" s="30"/>
-      <c r="AT19" s="30"/>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="30"/>
-      <c r="BK19" s="30"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="17"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
+      <c r="AT21" s="17"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="17"/>
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="17"/>
+      <c r="AY21" s="17"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="17"/>
+      <c r="BB21" s="17"/>
+      <c r="BC21" s="17"/>
+      <c r="BD21" s="17"/>
+      <c r="BE21" s="17"/>
+      <c r="BF21" s="17"/>
+      <c r="BG21" s="17"/>
+      <c r="BH21" s="17"/>
+      <c r="BI21" s="17"/>
+      <c r="BJ21" s="17"/>
+      <c r="BK21" s="17"/>
     </row>
-    <row r="20" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="132" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="125">
+    <row r="22" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="139"/>
+      <c r="B22" s="116" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="151">
         <v>1</v>
       </c>
-      <c r="D20" s="126">
-        <v>45004</v>
-      </c>
-      <c r="E20" s="126">
-        <v>45004</v>
-      </c>
-      <c r="F20" s="148">
+      <c r="D22" s="127">
+        <v>45041</v>
+      </c>
+      <c r="E22" s="127">
+        <v>45041</v>
+      </c>
+      <c r="F22" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>1</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="30"/>
-      <c r="R20" s="30"/>
-      <c r="S20" s="30"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="30"/>
-      <c r="V20" s="30"/>
-      <c r="W20" s="30"/>
-      <c r="X20" s="30"/>
-      <c r="Y20" s="30"/>
-      <c r="Z20" s="30"/>
-      <c r="AA20" s="30"/>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AD20" s="30"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="30"/>
-      <c r="AG20" s="30"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="30"/>
-      <c r="AL20" s="30"/>
-      <c r="AM20" s="30"/>
-      <c r="AN20" s="30"/>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="30"/>
-      <c r="AT20" s="30"/>
-      <c r="AU20" s="30"/>
-      <c r="AV20" s="30"/>
-      <c r="AW20" s="30"/>
-      <c r="AX20" s="30"/>
-      <c r="AY20" s="30"/>
-      <c r="AZ20" s="30"/>
-      <c r="BA20" s="30"/>
-      <c r="BB20" s="30"/>
-      <c r="BC20" s="30"/>
-      <c r="BD20" s="30"/>
-      <c r="BE20" s="30"/>
-      <c r="BF20" s="30"/>
-      <c r="BG20" s="30"/>
-      <c r="BH20" s="30"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="30"/>
-      <c r="BK20" s="30"/>
-    </row>
-    <row r="21" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="132" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="125">
-        <v>1</v>
-      </c>
-      <c r="D21" s="126">
-        <v>45005</v>
-      </c>
-      <c r="E21" s="126">
-        <v>45006</v>
-      </c>
-      <c r="F21" s="148">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>2</v>
-      </c>
-      <c r="G21" s="109"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="30"/>
-      <c r="S21" s="30"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="30"/>
-      <c r="V21" s="30"/>
-      <c r="W21" s="30"/>
-      <c r="X21" s="30"/>
-      <c r="Y21" s="30"/>
-      <c r="Z21" s="30"/>
-      <c r="AA21" s="30"/>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AD21" s="30"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="30"/>
-      <c r="AG21" s="30"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="30"/>
-      <c r="AK21" s="30"/>
-      <c r="AL21" s="30"/>
-      <c r="AM21" s="30"/>
-      <c r="AN21" s="30"/>
-      <c r="AO21" s="30"/>
-      <c r="AP21" s="30"/>
-      <c r="AQ21" s="30"/>
-      <c r="AR21" s="30"/>
-      <c r="AS21" s="30"/>
-      <c r="AT21" s="30"/>
-      <c r="AU21" s="30"/>
-      <c r="AV21" s="30"/>
-      <c r="AW21" s="30"/>
-      <c r="AX21" s="30"/>
-      <c r="AY21" s="30"/>
-      <c r="AZ21" s="30"/>
-      <c r="BA21" s="30"/>
-      <c r="BB21" s="30"/>
-      <c r="BC21" s="30"/>
-      <c r="BD21" s="30"/>
-      <c r="BE21" s="30"/>
-      <c r="BF21" s="30"/>
-      <c r="BG21" s="30"/>
-      <c r="BH21" s="30"/>
-      <c r="BI21" s="30"/>
-      <c r="BJ21" s="30"/>
-      <c r="BK21" s="30"/>
-    </row>
-    <row r="22" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="132" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="125">
-        <v>1</v>
-      </c>
-      <c r="D22" s="126">
-        <v>45005</v>
-      </c>
-      <c r="E22" s="126">
-        <v>45006</v>
-      </c>
-      <c r="F22" s="148">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>2</v>
-      </c>
-      <c r="G22" s="109"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="30"/>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="30"/>
-      <c r="AM22" s="30"/>
-      <c r="AN22" s="30"/>
-      <c r="AO22" s="30"/>
-      <c r="AP22" s="30"/>
-      <c r="AQ22" s="30"/>
-      <c r="AR22" s="30"/>
-      <c r="AS22" s="30"/>
-      <c r="AT22" s="30"/>
-      <c r="AU22" s="30"/>
-      <c r="AV22" s="30"/>
-      <c r="AW22" s="30"/>
-      <c r="AX22" s="30"/>
-      <c r="AY22" s="30"/>
-      <c r="AZ22" s="30"/>
-      <c r="BA22" s="30"/>
-      <c r="BB22" s="30"/>
-      <c r="BC22" s="30"/>
-      <c r="BD22" s="30"/>
-      <c r="BE22" s="30"/>
-      <c r="BF22" s="30"/>
-      <c r="BG22" s="30"/>
-      <c r="BH22" s="30"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="30"/>
-      <c r="BK22" s="30"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="17"/>
+      <c r="AP22" s="17"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
+      <c r="AT22" s="17"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="17"/>
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="17"/>
+      <c r="AY22" s="17"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="17"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="17"/>
+      <c r="BD22" s="17"/>
+      <c r="BE22" s="17"/>
+      <c r="BF22" s="17"/>
+      <c r="BG22" s="17"/>
+      <c r="BH22" s="17"/>
+      <c r="BI22" s="17"/>
+      <c r="BJ22" s="17"/>
+      <c r="BK22" s="17"/>
     </row>
     <row r="23" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="132" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="125">
+      <c r="A23" s="139"/>
+      <c r="B23" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="151">
         <v>1</v>
       </c>
-      <c r="D23" s="126">
-        <v>45007</v>
-      </c>
-      <c r="E23" s="126">
-        <v>45008</v>
-      </c>
-      <c r="F23" s="148">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>2</v>
+      <c r="D23" s="111">
+        <v>45042</v>
+      </c>
+      <c r="E23" s="111">
+        <v>45061</v>
+      </c>
+      <c r="F23" s="129">
+        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]</f>
+        <v>19</v>
       </c>
       <c r="G23" s="107"/>
       <c r="H23" s="17"/>
@@ -6086,23 +5961,23 @@
       <c r="BJ23" s="17"/>
       <c r="BK23" s="17"/>
     </row>
-    <row r="24" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="156"/>
-      <c r="B24" s="149" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="157">
+    <row r="24" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="139"/>
+      <c r="B24" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="151">
         <v>1</v>
       </c>
-      <c r="D24" s="151">
-        <v>45008</v>
-      </c>
-      <c r="E24" s="151">
-        <v>45008</v>
-      </c>
-      <c r="F24" s="152">
+      <c r="D24" s="111">
+        <v>45062</v>
+      </c>
+      <c r="E24" s="111">
+        <v>45076</v>
+      </c>
+      <c r="F24" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G24" s="107"/>
       <c r="H24" s="17"/>
@@ -6162,25 +6037,23 @@
       <c r="BJ24" s="17"/>
       <c r="BK24" s="17"/>
     </row>
-    <row r="25" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="144" t="s">
+    <row r="25" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="139"/>
+      <c r="B25" s="116" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="158">
+      <c r="C25" s="151">
         <v>1</v>
       </c>
-      <c r="D25" s="146">
-        <v>45009</v>
-      </c>
-      <c r="E25" s="146">
-        <v>45009</v>
-      </c>
-      <c r="F25" s="147">
+      <c r="D25" s="111">
+        <v>45078</v>
+      </c>
+      <c r="E25" s="111">
+        <v>45079</v>
+      </c>
+      <c r="F25" s="129">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="107"/>
       <c r="H25" s="17"/>
@@ -6240,23 +6113,23 @@
       <c r="BJ25" s="17"/>
       <c r="BK25" s="17"/>
     </row>
-    <row r="26" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="115"/>
-      <c r="B26" s="132" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" s="127">
+    <row r="26" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="140"/>
+      <c r="B26" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="151">
         <v>1</v>
       </c>
-      <c r="D26" s="126">
-        <v>45009</v>
-      </c>
-      <c r="E26" s="126">
-        <v>45009</v>
-      </c>
-      <c r="F26" s="148">
+      <c r="D26" s="131">
+        <v>45080</v>
+      </c>
+      <c r="E26" s="131">
+        <v>45081</v>
+      </c>
+      <c r="F26" s="132">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="107"/>
       <c r="H26" s="17"/>
@@ -6316,23 +6189,25 @@
       <c r="BJ26" s="17"/>
       <c r="BK26" s="17"/>
     </row>
-    <row r="27" spans="1:63" s="1" customFormat="1" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="132" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="127">
+    <row r="27" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="139" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="123" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="151">
         <v>1</v>
       </c>
-      <c r="D27" s="126">
-        <v>45010</v>
-      </c>
-      <c r="E27" s="126">
-        <v>45013</v>
-      </c>
-      <c r="F27" s="159">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]</f>
-        <v>3</v>
+      <c r="D27" s="124">
+        <v>45117</v>
+      </c>
+      <c r="E27" s="124">
+        <v>45117</v>
+      </c>
+      <c r="F27" s="125">
+        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
+        <v>1</v>
       </c>
       <c r="G27" s="107"/>
       <c r="H27" s="17"/>
@@ -6392,23 +6267,23 @@
       <c r="BJ27" s="17"/>
       <c r="BK27" s="17"/>
     </row>
-    <row r="28" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="115"/>
-      <c r="B28" s="132" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="125">
+    <row r="28" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="139"/>
+      <c r="B28" s="116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="151">
         <v>1</v>
       </c>
-      <c r="D28" s="126">
-        <v>45014</v>
-      </c>
-      <c r="E28" s="126">
-        <v>45014</v>
-      </c>
-      <c r="F28" s="148">
+      <c r="D28" s="111">
+        <v>45118</v>
+      </c>
+      <c r="E28" s="111">
+        <v>45120</v>
+      </c>
+      <c r="F28" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="107"/>
       <c r="H28" s="17"/>
@@ -6468,23 +6343,23 @@
       <c r="BJ28" s="17"/>
       <c r="BK28" s="17"/>
     </row>
-    <row r="29" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="115"/>
-      <c r="B29" s="132" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="125">
+    <row r="29" spans="1:63" s="1" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="139"/>
+      <c r="B29" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="151">
         <v>1</v>
       </c>
-      <c r="D29" s="126">
-        <v>45014</v>
-      </c>
-      <c r="E29" s="126">
-        <v>45014</v>
-      </c>
-      <c r="F29" s="148">
+      <c r="D29" s="111">
+        <v>45121</v>
+      </c>
+      <c r="E29" s="111">
+        <v>45132</v>
+      </c>
+      <c r="F29" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G29" s="107"/>
       <c r="H29" s="17"/>
@@ -6544,23 +6419,23 @@
       <c r="BJ29" s="17"/>
       <c r="BK29" s="17"/>
     </row>
-    <row r="30" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="115"/>
-      <c r="B30" s="132" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D30" s="126">
-        <v>45015</v>
-      </c>
-      <c r="E30" s="126">
-        <v>45015</v>
-      </c>
-      <c r="F30" s="148">
+    <row r="30" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="139"/>
+      <c r="B30" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="151">
+        <v>1</v>
+      </c>
+      <c r="D30" s="111">
+        <v>45128</v>
+      </c>
+      <c r="E30" s="111">
+        <v>45137</v>
+      </c>
+      <c r="F30" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G30" s="107"/>
       <c r="H30" s="17"/>
@@ -6621,22 +6496,22 @@
       <c r="BK30" s="17"/>
     </row>
     <row r="31" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="115"/>
-      <c r="B31" s="132" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D31" s="126">
-        <v>45015</v>
-      </c>
-      <c r="E31" s="126">
-        <v>45015</v>
-      </c>
-      <c r="F31" s="148">
+      <c r="A31" s="139"/>
+      <c r="B31" s="116" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="151">
+        <v>1</v>
+      </c>
+      <c r="D31" s="111">
+        <v>45139</v>
+      </c>
+      <c r="E31" s="111">
+        <v>45148</v>
+      </c>
+      <c r="F31" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G31" s="107"/>
       <c r="H31" s="17"/>
@@ -6696,23 +6571,23 @@
       <c r="BJ31" s="17"/>
       <c r="BK31" s="17"/>
     </row>
-    <row r="32" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="115"/>
-      <c r="B32" s="132" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D32" s="126">
-        <v>45016</v>
-      </c>
-      <c r="E32" s="126">
-        <v>45016</v>
-      </c>
-      <c r="F32" s="148">
+    <row r="32" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="139"/>
+      <c r="B32" s="116" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="151">
+        <v>1</v>
+      </c>
+      <c r="D32" s="111">
+        <v>45150</v>
+      </c>
+      <c r="E32" s="111">
+        <v>45153</v>
+      </c>
+      <c r="F32" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32" s="107"/>
       <c r="H32" s="17"/>
@@ -6773,22 +6648,22 @@
       <c r="BK32" s="17"/>
     </row>
     <row r="33" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="115"/>
-      <c r="B33" s="132" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D33" s="126">
-        <v>45031</v>
-      </c>
-      <c r="E33" s="126">
-        <v>45041</v>
-      </c>
-      <c r="F33" s="148">
+      <c r="A33" s="139"/>
+      <c r="B33" s="116" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="151">
+        <v>1</v>
+      </c>
+      <c r="D33" s="111">
+        <v>45154</v>
+      </c>
+      <c r="E33" s="111">
+        <v>45154</v>
+      </c>
+      <c r="F33" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G33" s="107"/>
       <c r="H33" s="17"/>
@@ -6848,23 +6723,23 @@
       <c r="BJ33" s="17"/>
       <c r="BK33" s="17"/>
     </row>
-    <row r="34" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="132" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="125">
-        <v>0.8</v>
-      </c>
-      <c r="D34" s="126">
-        <v>45047</v>
-      </c>
-      <c r="E34" s="126">
-        <v>45047</v>
-      </c>
-      <c r="F34" s="148">
+    <row r="34" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="139"/>
+      <c r="B34" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="151">
+        <v>1</v>
+      </c>
+      <c r="D34" s="111">
+        <v>45155</v>
+      </c>
+      <c r="E34" s="111">
+        <v>45156</v>
+      </c>
+      <c r="F34" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="107"/>
       <c r="H34" s="17"/>
@@ -6924,21 +6799,23 @@
       <c r="BJ34" s="17"/>
       <c r="BK34" s="17"/>
     </row>
-    <row r="35" spans="1:63" s="1" customFormat="1" ht="34.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="132" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="126">
-        <v>45060</v>
-      </c>
-      <c r="E35" s="126">
-        <v>45067</v>
-      </c>
-      <c r="F35" s="148">
+    <row r="35" spans="1:63" s="1" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="139"/>
+      <c r="B35" s="116" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="151">
+        <v>1</v>
+      </c>
+      <c r="D35" s="111">
+        <v>45157</v>
+      </c>
+      <c r="E35" s="111">
+        <v>45157</v>
+      </c>
+      <c r="F35" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G35" s="107"/>
       <c r="H35" s="17"/>
@@ -6998,21 +6875,23 @@
       <c r="BJ35" s="17"/>
       <c r="BK35" s="17"/>
     </row>
-    <row r="36" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="125"/>
-      <c r="D36" s="126">
-        <v>45068</v>
-      </c>
-      <c r="E36" s="126">
-        <v>45068</v>
-      </c>
-      <c r="F36" s="148">
+    <row r="36" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="139"/>
+      <c r="B36" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="151">
+        <v>1</v>
+      </c>
+      <c r="D36" s="111">
+        <v>45158</v>
+      </c>
+      <c r="E36" s="111">
+        <v>45163</v>
+      </c>
+      <c r="F36" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G36" s="107"/>
       <c r="H36" s="17"/>
@@ -7072,19 +6951,21 @@
       <c r="BJ36" s="17"/>
       <c r="BK36" s="17"/>
     </row>
-    <row r="37" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="116"/>
-      <c r="B37" s="149" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="151">
-        <v>45068</v>
-      </c>
-      <c r="E37" s="151">
-        <v>45068</v>
-      </c>
-      <c r="F37" s="152">
+    <row r="37" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="139"/>
+      <c r="B37" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="151">
+        <v>1</v>
+      </c>
+      <c r="D37" s="111">
+        <v>45163</v>
+      </c>
+      <c r="E37" s="111">
+        <v>45163</v>
+      </c>
+      <c r="F37" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>1</v>
       </c>
@@ -7147,20 +7028,20 @@
       <c r="BK37" s="17"/>
     </row>
     <row r="38" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="115" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="140" t="s">
-        <v>70</v>
-      </c>
-      <c r="C38" s="141"/>
-      <c r="D38" s="142">
-        <v>45070</v>
-      </c>
-      <c r="E38" s="142">
-        <v>45070</v>
-      </c>
-      <c r="F38" s="143">
+      <c r="A38" s="139"/>
+      <c r="B38" s="116" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="151">
+        <v>1</v>
+      </c>
+      <c r="D38" s="111">
+        <v>45164</v>
+      </c>
+      <c r="E38" s="111">
+        <v>45164</v>
+      </c>
+      <c r="F38" s="115">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
         <v>1</v>
       </c>
@@ -7222,21 +7103,23 @@
       <c r="BJ38" s="17"/>
       <c r="BK38" s="17"/>
     </row>
-    <row r="39" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="132" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="125"/>
-      <c r="D39" s="126">
-        <v>45071</v>
-      </c>
-      <c r="E39" s="126">
-        <v>45073</v>
-      </c>
-      <c r="F39" s="131">
+    <row r="39" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="140"/>
+      <c r="B39" s="117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="151">
+        <v>1</v>
+      </c>
+      <c r="D39" s="118">
+        <v>45166</v>
+      </c>
+      <c r="E39" s="118">
+        <v>45166</v>
+      </c>
+      <c r="F39" s="119">
         <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39" s="107"/>
       <c r="H39" s="17"/>
@@ -7296,988 +7179,26 @@
       <c r="BJ39" s="17"/>
       <c r="BK39" s="17"/>
     </row>
-    <row r="40" spans="1:63" s="1" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="115"/>
-      <c r="B40" s="132" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="125"/>
-      <c r="D40" s="126">
-        <v>45074</v>
-      </c>
-      <c r="E40" s="126">
-        <v>45087</v>
-      </c>
-      <c r="F40" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>14</v>
-      </c>
-      <c r="G40" s="107"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-      <c r="AB40" s="17"/>
-      <c r="AC40" s="17"/>
-      <c r="AD40" s="17"/>
-      <c r="AE40" s="17"/>
-      <c r="AF40" s="17"/>
-      <c r="AG40" s="17"/>
-      <c r="AH40" s="17"/>
-      <c r="AI40" s="17"/>
-      <c r="AJ40" s="17"/>
-      <c r="AK40" s="17"/>
-      <c r="AL40" s="17"/>
-      <c r="AM40" s="17"/>
-      <c r="AN40" s="17"/>
-      <c r="AO40" s="17"/>
-      <c r="AP40" s="17"/>
-      <c r="AQ40" s="17"/>
-      <c r="AR40" s="17"/>
-      <c r="AS40" s="17"/>
-      <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
-      <c r="AV40" s="17"/>
-      <c r="AW40" s="17"/>
-      <c r="AX40" s="17"/>
-      <c r="AY40" s="17"/>
-      <c r="AZ40" s="17"/>
-      <c r="BA40" s="17"/>
-      <c r="BB40" s="17"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="17"/>
-      <c r="BE40" s="17"/>
-      <c r="BF40" s="17"/>
-      <c r="BG40" s="17"/>
-      <c r="BH40" s="17"/>
-      <c r="BI40" s="17"/>
-      <c r="BJ40" s="17"/>
-      <c r="BK40" s="17"/>
-    </row>
-    <row r="41" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="132" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="125"/>
-      <c r="D41" s="126">
-        <v>45089</v>
-      </c>
-      <c r="E41" s="126">
-        <v>45097</v>
-      </c>
-      <c r="F41" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>9</v>
-      </c>
-      <c r="G41" s="107"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="W41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-      <c r="AB41" s="17"/>
-      <c r="AC41" s="17"/>
-      <c r="AD41" s="17"/>
-      <c r="AE41" s="17"/>
-      <c r="AF41" s="17"/>
-      <c r="AG41" s="17"/>
-      <c r="AH41" s="17"/>
-      <c r="AI41" s="17"/>
-      <c r="AJ41" s="17"/>
-      <c r="AK41" s="17"/>
-      <c r="AL41" s="17"/>
-      <c r="AM41" s="17"/>
-      <c r="AN41" s="17"/>
-      <c r="AO41" s="17"/>
-      <c r="AP41" s="17"/>
-      <c r="AQ41" s="17"/>
-      <c r="AR41" s="17"/>
-      <c r="AS41" s="17"/>
-      <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
-      <c r="AV41" s="17"/>
-      <c r="AW41" s="17"/>
-      <c r="AX41" s="17"/>
-      <c r="AY41" s="17"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="17"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="17"/>
-      <c r="BE41" s="17"/>
-      <c r="BF41" s="17"/>
-      <c r="BG41" s="17"/>
-      <c r="BH41" s="17"/>
-      <c r="BI41" s="17"/>
-      <c r="BJ41" s="17"/>
-      <c r="BK41" s="17"/>
-    </row>
-    <row r="42" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="115"/>
-      <c r="B42" s="132" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="125"/>
-      <c r="D42" s="126">
-        <v>45098</v>
-      </c>
-      <c r="E42" s="126">
-        <v>45107</v>
-      </c>
-      <c r="F42" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>10</v>
-      </c>
-      <c r="G42" s="107"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="W42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
-      <c r="AB42" s="17"/>
-      <c r="AC42" s="17"/>
-      <c r="AD42" s="17"/>
-      <c r="AE42" s="17"/>
-      <c r="AF42" s="17"/>
-      <c r="AG42" s="17"/>
-      <c r="AH42" s="17"/>
-      <c r="AI42" s="17"/>
-      <c r="AJ42" s="17"/>
-      <c r="AK42" s="17"/>
-      <c r="AL42" s="17"/>
-      <c r="AM42" s="17"/>
-      <c r="AN42" s="17"/>
-      <c r="AO42" s="17"/>
-      <c r="AP42" s="17"/>
-      <c r="AQ42" s="17"/>
-      <c r="AR42" s="17"/>
-      <c r="AS42" s="17"/>
-      <c r="AT42" s="17"/>
-      <c r="AU42" s="17"/>
-      <c r="AV42" s="17"/>
-      <c r="AW42" s="17"/>
-      <c r="AX42" s="17"/>
-      <c r="AY42" s="17"/>
-      <c r="AZ42" s="17"/>
-      <c r="BA42" s="17"/>
-      <c r="BB42" s="17"/>
-      <c r="BC42" s="17"/>
-      <c r="BD42" s="17"/>
-      <c r="BE42" s="17"/>
-      <c r="BF42" s="17"/>
-      <c r="BG42" s="17"/>
-      <c r="BH42" s="17"/>
-      <c r="BI42" s="17"/>
-      <c r="BJ42" s="17"/>
-      <c r="BK42" s="17"/>
-    </row>
-    <row r="43" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="115"/>
-      <c r="B43" s="132" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="125"/>
-      <c r="D43" s="126">
-        <v>45108</v>
-      </c>
-      <c r="E43" s="126">
-        <v>45110</v>
-      </c>
-      <c r="F43" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>3</v>
-      </c>
-      <c r="G43" s="107"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
-      <c r="Y43" s="17"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="17"/>
-      <c r="AB43" s="17"/>
-      <c r="AC43" s="17"/>
-      <c r="AD43" s="17"/>
-      <c r="AE43" s="17"/>
-      <c r="AF43" s="17"/>
-      <c r="AG43" s="17"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="17"/>
-      <c r="AJ43" s="17"/>
-      <c r="AK43" s="17"/>
-      <c r="AL43" s="17"/>
-      <c r="AM43" s="17"/>
-      <c r="AN43" s="17"/>
-      <c r="AO43" s="17"/>
-      <c r="AP43" s="17"/>
-      <c r="AQ43" s="17"/>
-      <c r="AR43" s="17"/>
-      <c r="AS43" s="17"/>
-      <c r="AT43" s="17"/>
-      <c r="AU43" s="17"/>
-      <c r="AV43" s="17"/>
-      <c r="AW43" s="17"/>
-      <c r="AX43" s="17"/>
-      <c r="AY43" s="17"/>
-      <c r="AZ43" s="17"/>
-      <c r="BA43" s="17"/>
-      <c r="BB43" s="17"/>
-      <c r="BC43" s="17"/>
-      <c r="BD43" s="17"/>
-      <c r="BE43" s="17"/>
-      <c r="BF43" s="17"/>
-      <c r="BG43" s="17"/>
-      <c r="BH43" s="17"/>
-      <c r="BI43" s="17"/>
-      <c r="BJ43" s="17"/>
-      <c r="BK43" s="17"/>
-    </row>
-    <row r="44" spans="1:63" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="115"/>
-      <c r="B44" s="132" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="126">
-        <v>45111</v>
-      </c>
-      <c r="E44" s="126">
-        <v>45111</v>
-      </c>
-      <c r="F44" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G44" s="107"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
-      <c r="R44" s="17"/>
-      <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="17"/>
-      <c r="V44" s="17"/>
-      <c r="W44" s="17"/>
-      <c r="X44" s="17"/>
-      <c r="Y44" s="17"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="17"/>
-      <c r="AB44" s="17"/>
-      <c r="AC44" s="17"/>
-      <c r="AD44" s="17"/>
-      <c r="AE44" s="17"/>
-      <c r="AF44" s="17"/>
-      <c r="AG44" s="17"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="17"/>
-      <c r="AJ44" s="17"/>
-      <c r="AK44" s="17"/>
-      <c r="AL44" s="17"/>
-      <c r="AM44" s="17"/>
-      <c r="AN44" s="17"/>
-      <c r="AO44" s="17"/>
-      <c r="AP44" s="17"/>
-      <c r="AQ44" s="17"/>
-      <c r="AR44" s="17"/>
-      <c r="AS44" s="17"/>
-      <c r="AT44" s="17"/>
-      <c r="AU44" s="17"/>
-      <c r="AV44" s="17"/>
-      <c r="AW44" s="17"/>
-      <c r="AX44" s="17"/>
-      <c r="AY44" s="17"/>
-      <c r="AZ44" s="17"/>
-      <c r="BA44" s="17"/>
-      <c r="BB44" s="17"/>
-      <c r="BC44" s="17"/>
-      <c r="BD44" s="17"/>
-      <c r="BE44" s="17"/>
-      <c r="BF44" s="17"/>
-      <c r="BG44" s="17"/>
-      <c r="BH44" s="17"/>
-      <c r="BI44" s="17"/>
-      <c r="BJ44" s="17"/>
-      <c r="BK44" s="17"/>
-    </row>
-    <row r="45" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
-      <c r="B45" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126">
-        <v>45112</v>
-      </c>
-      <c r="E45" s="126">
-        <v>45112</v>
-      </c>
-      <c r="F45" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G45" s="107"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="17"/>
-      <c r="L45" s="17"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="17"/>
-      <c r="O45" s="17"/>
-      <c r="P45" s="17"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
-      <c r="U45" s="17"/>
-      <c r="V45" s="17"/>
-      <c r="W45" s="17"/>
-      <c r="X45" s="17"/>
-      <c r="Y45" s="17"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="17"/>
-      <c r="AB45" s="17"/>
-      <c r="AC45" s="17"/>
-      <c r="AD45" s="17"/>
-      <c r="AE45" s="17"/>
-      <c r="AF45" s="17"/>
-      <c r="AG45" s="17"/>
-      <c r="AH45" s="17"/>
-      <c r="AI45" s="17"/>
-      <c r="AJ45" s="17"/>
-      <c r="AK45" s="17"/>
-      <c r="AL45" s="17"/>
-      <c r="AM45" s="17"/>
-      <c r="AN45" s="17"/>
-      <c r="AO45" s="17"/>
-      <c r="AP45" s="17"/>
-      <c r="AQ45" s="17"/>
-      <c r="AR45" s="17"/>
-      <c r="AS45" s="17"/>
-      <c r="AT45" s="17"/>
-      <c r="AU45" s="17"/>
-      <c r="AV45" s="17"/>
-      <c r="AW45" s="17"/>
-      <c r="AX45" s="17"/>
-      <c r="AY45" s="17"/>
-      <c r="AZ45" s="17"/>
-      <c r="BA45" s="17"/>
-      <c r="BB45" s="17"/>
-      <c r="BC45" s="17"/>
-      <c r="BD45" s="17"/>
-      <c r="BE45" s="17"/>
-      <c r="BF45" s="17"/>
-      <c r="BG45" s="17"/>
-      <c r="BH45" s="17"/>
-      <c r="BI45" s="17"/>
-      <c r="BJ45" s="17"/>
-      <c r="BK45" s="17"/>
-    </row>
-    <row r="46" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="115"/>
-      <c r="B46" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="126">
-        <v>45112</v>
-      </c>
-      <c r="E46" s="126">
-        <v>45112</v>
-      </c>
-      <c r="F46" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G46" s="107"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
-      <c r="U46" s="17"/>
-      <c r="V46" s="17"/>
-      <c r="W46" s="17"/>
-      <c r="X46" s="17"/>
-      <c r="Y46" s="17"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="17"/>
-      <c r="AB46" s="17"/>
-      <c r="AC46" s="17"/>
-      <c r="AD46" s="17"/>
-      <c r="AE46" s="17"/>
-      <c r="AF46" s="17"/>
-      <c r="AG46" s="17"/>
-      <c r="AH46" s="17"/>
-      <c r="AI46" s="17"/>
-      <c r="AJ46" s="17"/>
-      <c r="AK46" s="17"/>
-      <c r="AL46" s="17"/>
-      <c r="AM46" s="17"/>
-      <c r="AN46" s="17"/>
-      <c r="AO46" s="17"/>
-      <c r="AP46" s="17"/>
-      <c r="AQ46" s="17"/>
-      <c r="AR46" s="17"/>
-      <c r="AS46" s="17"/>
-      <c r="AT46" s="17"/>
-      <c r="AU46" s="17"/>
-      <c r="AV46" s="17"/>
-      <c r="AW46" s="17"/>
-      <c r="AX46" s="17"/>
-      <c r="AY46" s="17"/>
-      <c r="AZ46" s="17"/>
-      <c r="BA46" s="17"/>
-      <c r="BB46" s="17"/>
-      <c r="BC46" s="17"/>
-      <c r="BD46" s="17"/>
-      <c r="BE46" s="17"/>
-      <c r="BF46" s="17"/>
-      <c r="BG46" s="17"/>
-      <c r="BH46" s="17"/>
-      <c r="BI46" s="17"/>
-      <c r="BJ46" s="17"/>
-      <c r="BK46" s="17"/>
-    </row>
-    <row r="47" spans="1:63" s="1" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="115"/>
-      <c r="B47" s="132" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="125"/>
-      <c r="D47" s="126">
-        <v>45113</v>
-      </c>
-      <c r="E47" s="126">
-        <v>45113</v>
-      </c>
-      <c r="F47" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G47" s="107"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="17"/>
-      <c r="Y47" s="17"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="17"/>
-      <c r="AB47" s="17"/>
-      <c r="AC47" s="17"/>
-      <c r="AD47" s="17"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="17"/>
-      <c r="AH47" s="17"/>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="17"/>
-      <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="17"/>
-      <c r="AN47" s="17"/>
-      <c r="AO47" s="17"/>
-      <c r="AP47" s="17"/>
-      <c r="AQ47" s="17"/>
-      <c r="AR47" s="17"/>
-      <c r="AS47" s="17"/>
-      <c r="AT47" s="17"/>
-      <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
-      <c r="AW47" s="17"/>
-      <c r="AX47" s="17"/>
-      <c r="AY47" s="17"/>
-      <c r="AZ47" s="17"/>
-      <c r="BA47" s="17"/>
-      <c r="BB47" s="17"/>
-      <c r="BC47" s="17"/>
-      <c r="BD47" s="17"/>
-      <c r="BE47" s="17"/>
-      <c r="BF47" s="17"/>
-      <c r="BG47" s="17"/>
-      <c r="BH47" s="17"/>
-      <c r="BI47" s="17"/>
-      <c r="BJ47" s="17"/>
-      <c r="BK47" s="17"/>
-    </row>
-    <row r="48" spans="1:63" s="1" customFormat="1" ht="18.350000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="115"/>
-      <c r="B48" s="132" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="125"/>
-      <c r="D48" s="126">
-        <v>45114</v>
-      </c>
-      <c r="E48" s="126">
-        <v>45114</v>
-      </c>
-      <c r="F48" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
-      <c r="AM48" s="17"/>
-      <c r="AN48" s="17"/>
-      <c r="AO48" s="17"/>
-      <c r="AP48" s="17"/>
-      <c r="AQ48" s="17"/>
-      <c r="AR48" s="17"/>
-      <c r="AS48" s="17"/>
-      <c r="AT48" s="17"/>
-      <c r="AU48" s="17"/>
-      <c r="AV48" s="17"/>
-      <c r="AW48" s="17"/>
-      <c r="AX48" s="17"/>
-      <c r="AY48" s="17"/>
-      <c r="AZ48" s="17"/>
-      <c r="BA48" s="17"/>
-      <c r="BB48" s="17"/>
-      <c r="BC48" s="17"/>
-      <c r="BD48" s="17"/>
-      <c r="BE48" s="17"/>
-      <c r="BF48" s="17"/>
-      <c r="BG48" s="17"/>
-      <c r="BH48" s="17"/>
-      <c r="BI48" s="17"/>
-      <c r="BJ48" s="17"/>
-      <c r="BK48" s="17"/>
-    </row>
-    <row r="49" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="115"/>
-      <c r="B49" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="125"/>
-      <c r="D49" s="126">
-        <v>45115</v>
-      </c>
-      <c r="E49" s="126">
-        <v>45122</v>
-      </c>
-      <c r="F49" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>8</v>
-      </c>
-      <c r="G49" s="107"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
-      <c r="V49" s="17"/>
-      <c r="W49" s="17"/>
-      <c r="X49" s="17"/>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
-      <c r="AG49" s="17"/>
-      <c r="AH49" s="17"/>
-      <c r="AI49" s="17"/>
-      <c r="AJ49" s="17"/>
-      <c r="AK49" s="17"/>
-      <c r="AL49" s="17"/>
-      <c r="AM49" s="17"/>
-      <c r="AN49" s="17"/>
-      <c r="AO49" s="17"/>
-      <c r="AP49" s="17"/>
-      <c r="AQ49" s="17"/>
-      <c r="AR49" s="17"/>
-      <c r="AS49" s="17"/>
-      <c r="AT49" s="17"/>
-      <c r="AU49" s="17"/>
-      <c r="AV49" s="17"/>
-      <c r="AW49" s="17"/>
-      <c r="AX49" s="17"/>
-      <c r="AY49" s="17"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="17"/>
-      <c r="BC49" s="17"/>
-      <c r="BD49" s="17"/>
-      <c r="BE49" s="17"/>
-      <c r="BF49" s="17"/>
-      <c r="BG49" s="17"/>
-      <c r="BH49" s="17"/>
-      <c r="BI49" s="17"/>
-      <c r="BJ49" s="17"/>
-      <c r="BK49" s="17"/>
-    </row>
-    <row r="50" spans="1:63" s="1" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="115"/>
-      <c r="B50" s="132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="126">
-        <v>45123</v>
-      </c>
-      <c r="E50" s="126">
-        <v>45123</v>
-      </c>
-      <c r="F50" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G50" s="107"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
-      <c r="V50" s="17"/>
-      <c r="W50" s="17"/>
-      <c r="X50" s="17"/>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
-      <c r="AG50" s="17"/>
-      <c r="AH50" s="17"/>
-      <c r="AI50" s="17"/>
-      <c r="AJ50" s="17"/>
-      <c r="AK50" s="17"/>
-      <c r="AL50" s="17"/>
-      <c r="AM50" s="17"/>
-      <c r="AN50" s="17"/>
-      <c r="AO50" s="17"/>
-      <c r="AP50" s="17"/>
-      <c r="AQ50" s="17"/>
-      <c r="AR50" s="17"/>
-      <c r="AS50" s="17"/>
-      <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
-      <c r="AV50" s="17"/>
-      <c r="AW50" s="17"/>
-      <c r="AX50" s="17"/>
-      <c r="AY50" s="17"/>
-      <c r="AZ50" s="17"/>
-      <c r="BA50" s="17"/>
-      <c r="BB50" s="17"/>
-      <c r="BC50" s="17"/>
-      <c r="BD50" s="17"/>
-      <c r="BE50" s="17"/>
-      <c r="BF50" s="17"/>
-      <c r="BG50" s="17"/>
-      <c r="BH50" s="17"/>
-      <c r="BI50" s="17"/>
-      <c r="BJ50" s="17"/>
-      <c r="BK50" s="17"/>
-    </row>
-    <row r="51" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="125"/>
-      <c r="D51" s="126">
-        <v>45124</v>
-      </c>
-      <c r="E51" s="126">
-        <v>45124</v>
-      </c>
-      <c r="F51" s="131">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G51" s="107"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17"/>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17"/>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17"/>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17"/>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17"/>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17"/>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17"/>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17"/>
-      <c r="BK51" s="17"/>
-    </row>
-    <row r="52" spans="1:63" s="1" customFormat="1" ht="24.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="116"/>
-      <c r="B52" s="133" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="134"/>
-      <c r="D52" s="135">
-        <v>45166</v>
-      </c>
-      <c r="E52" s="135">
-        <v>45166</v>
-      </c>
-      <c r="F52" s="136">
-        <f>Milestones345[[#This Row],[End]]-Milestones345[[#This Row],[Start]]+1</f>
-        <v>1</v>
-      </c>
-      <c r="G52" s="107"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="17"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
-      <c r="R52" s="17"/>
-      <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
-      <c r="U52" s="17"/>
-      <c r="V52" s="17"/>
-      <c r="W52" s="17"/>
-      <c r="X52" s="17"/>
-      <c r="Y52" s="17"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="17"/>
-      <c r="AB52" s="17"/>
-      <c r="AC52" s="17"/>
-      <c r="AD52" s="17"/>
-      <c r="AE52" s="17"/>
-      <c r="AF52" s="17"/>
-      <c r="AG52" s="17"/>
-      <c r="AH52" s="17"/>
-      <c r="AI52" s="17"/>
-      <c r="AJ52" s="17"/>
-      <c r="AK52" s="17"/>
-      <c r="AL52" s="17"/>
-      <c r="AM52" s="17"/>
-      <c r="AN52" s="17"/>
-      <c r="AO52" s="17"/>
-      <c r="AP52" s="17"/>
-      <c r="AQ52" s="17"/>
-      <c r="AR52" s="17"/>
-      <c r="AS52" s="17"/>
-      <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
-      <c r="AV52" s="17"/>
-      <c r="AW52" s="17"/>
-      <c r="AX52" s="17"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="17"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="17"/>
-      <c r="BE52" s="17"/>
-      <c r="BF52" s="17"/>
-      <c r="BG52" s="17"/>
-      <c r="BH52" s="17"/>
-      <c r="BI52" s="17"/>
-      <c r="BJ52" s="17"/>
-      <c r="BK52" s="17"/>
-    </row>
-    <row r="53" spans="1:63" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F53" s="11"/>
-      <c r="G53" s="3"/>
+    <row r="40" spans="1:63" ht="30.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A38:A52"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A27:A39"/>
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A25:A37"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A21:A26"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:C52">
+  <conditionalFormatting sqref="C6:C39">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
-        <color theme="6" tint="0.79998168889431442"/>
+        <color theme="3" tint="0.59999389629810485"/>
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
@@ -8286,24 +7207,24 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:BK52">
-    <cfRule type="expression" dxfId="20" priority="5">
+  <conditionalFormatting sqref="H8:BK39">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>H$5&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:BK23 H28:BK52">
-    <cfRule type="expression" dxfId="19" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="H7:BK19 H24:BK39">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>AND(H$5&gt;=$D7+1,H$5&lt;=$D7+$F7-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BK6">
-    <cfRule type="expression" dxfId="18" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>H$5&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24:BK27">
-    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
-      <formula>AND(H$5&gt;=$C24+1,H$5&lt;=$C24+$F24-2)</formula>
+  <conditionalFormatting sqref="H20:BK23">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+      <formula>AND(H$5&gt;=$C20+1,H$5&lt;=$C20+$F20-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="3">
@@ -8337,10 +7258,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C52</xm:sqref>
+          <xm:sqref>C6:C39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="237" id="{F1B248EA-C76C-457E-AB04-CFFF78C583F7}">
+          <x14:cfRule type="iconSet" priority="315" id="{F1B248EA-C76C-457E-AB04-CFFF78C583F7}">
             <x14:iconSet iconSet="3Stars" showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -8356,7 +7277,7 @@
               <x14:cfIcon iconSet="3Signs" iconId="0"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>H7:BK52</xm:sqref>
+          <xm:sqref>H7:BK39</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8553,25 +7474,25 @@
       <c r="L5" s="35"/>
       <c r="M5" s="35"/>
       <c r="N5" s="36"/>
-      <c r="P5" s="111" t="s">
+      <c r="P5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
-      <c r="U5" s="111"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
+      <c r="U5" s="147"/>
       <c r="V5" s="52">
         <v>0</v>
       </c>
-      <c r="W5" s="112" t="s">
+      <c r="W5" s="148" t="s">
         <v>36</v>
       </c>
-      <c r="X5" s="112"/>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="112"/>
+      <c r="X5" s="148"/>
+      <c r="Y5" s="148"/>
+      <c r="Z5" s="148"/>
+      <c r="AA5" s="148"/>
+      <c r="AB5" s="148"/>
       <c r="AC5" s="17">
         <v>4</v>
       </c>
@@ -17389,22 +16310,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL64">
-    <cfRule type="expression" dxfId="16" priority="6">
+    <cfRule type="expression" dxfId="17" priority="6">
       <formula>I$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:BL37 I39:BL64">
-    <cfRule type="expression" dxfId="15" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>AND(I$7&gt;=$E9+1,I$7&lt;=$E9+$G9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL8">
-    <cfRule type="expression" dxfId="14" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>I$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38:BL38">
-    <cfRule type="expression" dxfId="13" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="87" stopIfTrue="1">
       <formula>AND(I$7&gt;=$D38+1,I$7&lt;=$D38+$G38-2)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17667,7 +16588,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Milestones3[Start])=0,TODAY(),MIN(Milestones3[Start])),TODAY())</f>
-        <v>45043</v>
+        <v>45157</v>
       </c>
       <c r="E5" s="67"/>
       <c r="H5" s="37"/>
@@ -17676,14 +16597,14 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="M5" s="39"/>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
       <c r="U5" s="52">
         <v>13</v>
       </c>
@@ -17703,7 +16624,7 @@
       </c>
       <c r="H6" s="81" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>May</v>
+        <v>September</v>
       </c>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
@@ -17743,7 +16664,7 @@
       <c r="AI6" s="27"/>
       <c r="AJ6" s="82" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"mmmm")=AC6,TEXT(AJ7,"mmmm")=V6,TEXT(AJ7,"mmmm")=O6,TEXT(AJ7,"mmmm")=H6),"",TEXT(AJ7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="AK6" s="82"/>
       <c r="AL6" s="82"/>
@@ -17753,7 +16674,7 @@
       <c r="AP6" s="27"/>
       <c r="AQ6" s="27" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v/>
+        <v>October</v>
       </c>
       <c r="AR6" s="27"/>
       <c r="AS6" s="27"/>
@@ -17787,227 +16708,227 @@
       <c r="B7" s="23"/>
       <c r="H7" s="55">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45056</v>
+        <v>45170</v>
       </c>
       <c r="I7" s="56">
         <f ca="1">H7+1</f>
-        <v>45057</v>
+        <v>45171</v>
       </c>
       <c r="J7" s="56">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45058</v>
+        <v>45172</v>
       </c>
       <c r="K7" s="56">
         <f ca="1">J7+1</f>
-        <v>45059</v>
+        <v>45173</v>
       </c>
       <c r="L7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45174</v>
       </c>
       <c r="M7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="N7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45062</v>
+        <v>45176</v>
       </c>
       <c r="O7" s="56">
         <f ca="1">N7+1</f>
-        <v>45063</v>
+        <v>45177</v>
       </c>
       <c r="P7" s="56">
         <f ca="1">O7+1</f>
-        <v>45064</v>
+        <v>45178</v>
       </c>
       <c r="Q7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45065</v>
+        <v>45179</v>
       </c>
       <c r="R7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45066</v>
+        <v>45180</v>
       </c>
       <c r="S7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45067</v>
+        <v>45181</v>
       </c>
       <c r="T7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45068</v>
+        <v>45182</v>
       </c>
       <c r="U7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45069</v>
+        <v>45183</v>
       </c>
       <c r="V7" s="56">
         <f ca="1">U7+1</f>
-        <v>45070</v>
+        <v>45184</v>
       </c>
       <c r="W7" s="56">
         <f ca="1">V7+1</f>
-        <v>45071</v>
+        <v>45185</v>
       </c>
       <c r="X7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45072</v>
+        <v>45186</v>
       </c>
       <c r="Y7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45073</v>
+        <v>45187</v>
       </c>
       <c r="Z7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45074</v>
+        <v>45188</v>
       </c>
       <c r="AA7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45075</v>
+        <v>45189</v>
       </c>
       <c r="AB7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45076</v>
+        <v>45190</v>
       </c>
       <c r="AC7" s="56">
         <f ca="1">AB7+1</f>
-        <v>45077</v>
+        <v>45191</v>
       </c>
       <c r="AD7" s="56">
         <f ca="1">AC7+1</f>
-        <v>45078</v>
+        <v>45192</v>
       </c>
       <c r="AE7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45079</v>
+        <v>45193</v>
       </c>
       <c r="AF7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45080</v>
+        <v>45194</v>
       </c>
       <c r="AG7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45081</v>
+        <v>45195</v>
       </c>
       <c r="AH7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45082</v>
+        <v>45196</v>
       </c>
       <c r="AI7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45197</v>
       </c>
       <c r="AJ7" s="56">
         <f ca="1">AI7+1</f>
-        <v>45084</v>
+        <v>45198</v>
       </c>
       <c r="AK7" s="56">
         <f ca="1">AJ7+1</f>
-        <v>45085</v>
+        <v>45199</v>
       </c>
       <c r="AL7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45200</v>
       </c>
       <c r="AM7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45087</v>
+        <v>45201</v>
       </c>
       <c r="AN7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45202</v>
       </c>
       <c r="AO7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45089</v>
+        <v>45203</v>
       </c>
       <c r="AP7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45204</v>
       </c>
       <c r="AQ7" s="56">
         <f ca="1">AP7+1</f>
-        <v>45091</v>
+        <v>45205</v>
       </c>
       <c r="AR7" s="56">
         <f ca="1">AQ7+1</f>
-        <v>45092</v>
+        <v>45206</v>
       </c>
       <c r="AS7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45207</v>
       </c>
       <c r="AT7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45208</v>
       </c>
       <c r="AU7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45209</v>
       </c>
       <c r="AV7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45210</v>
       </c>
       <c r="AW7" s="56">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45211</v>
       </c>
       <c r="AX7" s="56">
         <f ca="1">AW7+1</f>
-        <v>45098</v>
+        <v>45212</v>
       </c>
       <c r="AY7" s="56">
         <f ca="1">AX7+1</f>
-        <v>45099</v>
+        <v>45213</v>
       </c>
       <c r="AZ7" s="56">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45100</v>
+        <v>45214</v>
       </c>
       <c r="BA7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45101</v>
+        <v>45215</v>
       </c>
       <c r="BB7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45102</v>
+        <v>45216</v>
       </c>
       <c r="BC7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45103</v>
+        <v>45217</v>
       </c>
       <c r="BD7" s="56">
         <f t="shared" ca="1" si="1"/>
-        <v>45104</v>
+        <v>45218</v>
       </c>
       <c r="BE7" s="56">
         <f ca="1">BD7+1</f>
-        <v>45105</v>
+        <v>45219</v>
       </c>
       <c r="BF7" s="56">
         <f ca="1">BE7+1</f>
-        <v>45106</v>
+        <v>45220</v>
       </c>
       <c r="BG7" s="56">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45107</v>
+        <v>45221</v>
       </c>
       <c r="BH7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45108</v>
+        <v>45222</v>
       </c>
       <c r="BI7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45109</v>
+        <v>45223</v>
       </c>
       <c r="BJ7" s="56">
         <f t="shared" ca="1" si="2"/>
-        <v>45110</v>
+        <v>45224</v>
       </c>
       <c r="BK7" s="70">
         <f t="shared" ca="1" si="2"/>
-        <v>45111</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="31.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -18030,27 +16951,27 @@
       <c r="G8" s="72"/>
       <c r="H8" s="57" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="I8" s="54" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="J8" s="54" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="K8" s="54" t="str">
         <f t="shared" ref="K8:BK8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="L8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="M8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="N8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18058,27 +16979,27 @@
       </c>
       <c r="O8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="P8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="R8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="S8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="T8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="U8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18086,27 +17007,27 @@
       </c>
       <c r="V8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="W8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Y8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Z8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AA8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AB8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18114,27 +17035,27 @@
       </c>
       <c r="AC8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AD8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AF8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AG8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AH8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AI8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18142,27 +17063,27 @@
       </c>
       <c r="AJ8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AK8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AM8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AN8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AO8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AP8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18170,27 +17091,27 @@
       </c>
       <c r="AQ8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AR8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AT8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AU8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AV8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AW8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18198,27 +17119,27 @@
       </c>
       <c r="AX8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AY8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BA8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BB8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BC8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BD8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18226,27 +17147,27 @@
       </c>
       <c r="BE8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BF8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BH8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BI8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BJ8" s="54" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BK8" s="71" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -18562,7 +17483,7 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>45046</v>
+        <v>45160</v>
       </c>
       <c r="F11" s="16">
         <v>3</v>
@@ -18802,7 +17723,7 @@
       <c r="D12" s="48"/>
       <c r="E12" s="46">
         <f ca="1">TODAY()+5</f>
-        <v>45051</v>
+        <v>45165</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -19044,7 +17965,7 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">TODAY()-3</f>
-        <v>45043</v>
+        <v>45157</v>
       </c>
       <c r="F13" s="16">
         <v>10</v>
@@ -19284,7 +18205,7 @@
       <c r="D14" s="48"/>
       <c r="E14" s="46">
         <f ca="1">TODAY()+20</f>
-        <v>45066</v>
+        <v>45180</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -19526,7 +18447,7 @@
       </c>
       <c r="E15" s="46">
         <f ca="1">TODAY()+6</f>
-        <v>45052</v>
+        <v>45166</v>
       </c>
       <c r="F15" s="16">
         <v>6</v>
@@ -20003,7 +18924,7 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">TODAY()+6</f>
-        <v>45052</v>
+        <v>45166</v>
       </c>
       <c r="F17" s="16">
         <v>14</v>
@@ -20245,7 +19166,7 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()+7</f>
-        <v>45053</v>
+        <v>45167</v>
       </c>
       <c r="F18" s="16">
         <v>9</v>
@@ -20487,7 +19408,7 @@
       </c>
       <c r="E19" s="46">
         <f ca="1">TODAY()+15</f>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="F19" s="16">
         <v>11</v>
@@ -20727,7 +19648,7 @@
       <c r="D20" s="48"/>
       <c r="E20" s="46">
         <f ca="1">TODAY()+24</f>
-        <v>45070</v>
+        <v>45184</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -20967,7 +19888,7 @@
       <c r="D21" s="94"/>
       <c r="E21" s="46">
         <f ca="1">TODAY()+25</f>
-        <v>45071</v>
+        <v>45185</v>
       </c>
       <c r="F21" s="16">
         <v>24</v>
@@ -21442,7 +20363,7 @@
       <c r="D23" s="94"/>
       <c r="E23" s="46">
         <f ca="1">TODAY()+15</f>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="F23" s="16">
         <v>4</v>
@@ -21682,7 +20603,7 @@
       <c r="D24" s="48"/>
       <c r="E24" s="46">
         <f ca="1">TODAY()+19</f>
-        <v>45065</v>
+        <v>45179</v>
       </c>
       <c r="F24" s="16">
         <v>14</v>
@@ -21922,7 +20843,7 @@
       <c r="D25" s="94"/>
       <c r="E25" s="46">
         <f ca="1">TODAY()+35</f>
-        <v>45081</v>
+        <v>45195</v>
       </c>
       <c r="F25" s="16">
         <v>6</v>
@@ -22162,7 +21083,7 @@
       <c r="D26" s="48"/>
       <c r="E26" s="46">
         <f ca="1">TODAY()+48</f>
-        <v>45094</v>
+        <v>45208</v>
       </c>
       <c r="F26" s="16">
         <v>3</v>
@@ -22402,7 +21323,7 @@
       <c r="D27" s="94"/>
       <c r="E27" s="46">
         <f ca="1">TODAY()+40</f>
-        <v>45086</v>
+        <v>45200</v>
       </c>
       <c r="F27" s="16">
         <v>19</v>
@@ -22877,7 +21798,7 @@
       <c r="D29" s="94"/>
       <c r="E29" s="46">
         <f ca="1">TODAY()+37</f>
-        <v>45083</v>
+        <v>45197</v>
       </c>
       <c r="F29" s="16">
         <v>15</v>
@@ -23117,7 +22038,7 @@
       <c r="D30" s="48"/>
       <c r="E30" s="46">
         <f ca="1">TODAY()+29</f>
-        <v>45075</v>
+        <v>45189</v>
       </c>
       <c r="F30" s="16">
         <v>5</v>
@@ -23357,7 +22278,7 @@
       <c r="D31" s="94"/>
       <c r="E31" s="46">
         <f ca="1">TODAY()+80</f>
-        <v>45126</v>
+        <v>45240</v>
       </c>
       <c r="F31" s="16">
         <v>5</v>
@@ -24385,17 +23306,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="13" priority="6">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24658,7 +23579,7 @@
       </c>
       <c r="C5" s="51">
         <f ca="1">IFERROR(IF(MIN(Milestones[Start])=0,TODAY(),MIN(Milestones[Start])),TODAY())</f>
-        <v>45043</v>
+        <v>45157</v>
       </c>
       <c r="E5" s="67"/>
       <c r="H5" s="40"/>
@@ -24667,14 +23588,14 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
       <c r="M5" s="42"/>
-      <c r="O5" s="111" t="s">
+      <c r="O5" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="111"/>
-      <c r="R5" s="111"/>
-      <c r="S5" s="111"/>
-      <c r="T5" s="111"/>
+      <c r="P5" s="147"/>
+      <c r="Q5" s="147"/>
+      <c r="R5" s="147"/>
+      <c r="S5" s="147"/>
+      <c r="T5" s="147"/>
       <c r="U5" s="52">
         <v>13</v>
       </c>
@@ -24694,7 +23615,7 @@
       </c>
       <c r="H6" s="81" t="str">
         <f ca="1">TEXT(H7,"mmmm")</f>
-        <v>May</v>
+        <v>September</v>
       </c>
       <c r="I6" s="81"/>
       <c r="J6" s="81"/>
@@ -24734,7 +23655,7 @@
       <c r="AI6" s="27"/>
       <c r="AJ6" s="82" t="str">
         <f ca="1">IF(OR(TEXT(AJ7,"mmmm")=AC6,TEXT(AJ7,"mmmm")=V6,TEXT(AJ7,"mmmm")=O6,TEXT(AJ7,"mmmm")=H6),"",TEXT(AJ7,"mmmm"))</f>
-        <v>June</v>
+        <v/>
       </c>
       <c r="AK6" s="82"/>
       <c r="AL6" s="82"/>
@@ -24744,7 +23665,7 @@
       <c r="AP6" s="27"/>
       <c r="AQ6" s="27" t="str">
         <f ca="1">IF(OR(TEXT(AQ7,"mmmm")=AJ6,TEXT(AQ7,"mmmm")=AC6,TEXT(AQ7,"mmmm")=V6,TEXT(AQ7,"mmmm")=O6),"",TEXT(AQ7,"mmmm"))</f>
-        <v/>
+        <v>October</v>
       </c>
       <c r="AR6" s="27"/>
       <c r="AS6" s="27"/>
@@ -24778,227 +23699,227 @@
       <c r="B7" s="23"/>
       <c r="H7" s="58">
         <f ca="1">IFERROR(Project_Start+Scrolling_Increment,TODAY())</f>
-        <v>45056</v>
+        <v>45170</v>
       </c>
       <c r="I7" s="60">
         <f ca="1">H7+1</f>
-        <v>45057</v>
+        <v>45171</v>
       </c>
       <c r="J7" s="60">
         <f t="shared" ref="J7:AW7" ca="1" si="0">I7+1</f>
-        <v>45058</v>
+        <v>45172</v>
       </c>
       <c r="K7" s="60">
         <f ca="1">J7+1</f>
-        <v>45059</v>
+        <v>45173</v>
       </c>
       <c r="L7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45060</v>
+        <v>45174</v>
       </c>
       <c r="M7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="N7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45062</v>
+        <v>45176</v>
       </c>
       <c r="O7" s="60">
         <f ca="1">N7+1</f>
-        <v>45063</v>
+        <v>45177</v>
       </c>
       <c r="P7" s="60">
         <f ca="1">O7+1</f>
-        <v>45064</v>
+        <v>45178</v>
       </c>
       <c r="Q7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45065</v>
+        <v>45179</v>
       </c>
       <c r="R7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45066</v>
+        <v>45180</v>
       </c>
       <c r="S7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45067</v>
+        <v>45181</v>
       </c>
       <c r="T7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45068</v>
+        <v>45182</v>
       </c>
       <c r="U7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45069</v>
+        <v>45183</v>
       </c>
       <c r="V7" s="60">
         <f ca="1">U7+1</f>
-        <v>45070</v>
+        <v>45184</v>
       </c>
       <c r="W7" s="60">
         <f ca="1">V7+1</f>
-        <v>45071</v>
+        <v>45185</v>
       </c>
       <c r="X7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45072</v>
+        <v>45186</v>
       </c>
       <c r="Y7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45073</v>
+        <v>45187</v>
       </c>
       <c r="Z7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45074</v>
+        <v>45188</v>
       </c>
       <c r="AA7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45075</v>
+        <v>45189</v>
       </c>
       <c r="AB7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45076</v>
+        <v>45190</v>
       </c>
       <c r="AC7" s="60">
         <f ca="1">AB7+1</f>
-        <v>45077</v>
+        <v>45191</v>
       </c>
       <c r="AD7" s="60">
         <f ca="1">AC7+1</f>
-        <v>45078</v>
+        <v>45192</v>
       </c>
       <c r="AE7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45079</v>
+        <v>45193</v>
       </c>
       <c r="AF7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45080</v>
+        <v>45194</v>
       </c>
       <c r="AG7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45081</v>
+        <v>45195</v>
       </c>
       <c r="AH7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45082</v>
+        <v>45196</v>
       </c>
       <c r="AI7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45083</v>
+        <v>45197</v>
       </c>
       <c r="AJ7" s="60">
         <f ca="1">AI7+1</f>
-        <v>45084</v>
+        <v>45198</v>
       </c>
       <c r="AK7" s="60">
         <f ca="1">AJ7+1</f>
-        <v>45085</v>
+        <v>45199</v>
       </c>
       <c r="AL7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45086</v>
+        <v>45200</v>
       </c>
       <c r="AM7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45087</v>
+        <v>45201</v>
       </c>
       <c r="AN7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45088</v>
+        <v>45202</v>
       </c>
       <c r="AO7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45089</v>
+        <v>45203</v>
       </c>
       <c r="AP7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45090</v>
+        <v>45204</v>
       </c>
       <c r="AQ7" s="60">
         <f ca="1">AP7+1</f>
-        <v>45091</v>
+        <v>45205</v>
       </c>
       <c r="AR7" s="60">
         <f ca="1">AQ7+1</f>
-        <v>45092</v>
+        <v>45206</v>
       </c>
       <c r="AS7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45093</v>
+        <v>45207</v>
       </c>
       <c r="AT7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45094</v>
+        <v>45208</v>
       </c>
       <c r="AU7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45095</v>
+        <v>45209</v>
       </c>
       <c r="AV7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45096</v>
+        <v>45210</v>
       </c>
       <c r="AW7" s="60">
         <f t="shared" ca="1" si="0"/>
-        <v>45097</v>
+        <v>45211</v>
       </c>
       <c r="AX7" s="60">
         <f ca="1">AW7+1</f>
-        <v>45098</v>
+        <v>45212</v>
       </c>
       <c r="AY7" s="60">
         <f ca="1">AX7+1</f>
-        <v>45099</v>
+        <v>45213</v>
       </c>
       <c r="AZ7" s="60">
         <f t="shared" ref="AZ7:BD7" ca="1" si="1">AY7+1</f>
-        <v>45100</v>
+        <v>45214</v>
       </c>
       <c r="BA7" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45101</v>
+        <v>45215</v>
       </c>
       <c r="BB7" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45102</v>
+        <v>45216</v>
       </c>
       <c r="BC7" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45103</v>
+        <v>45217</v>
       </c>
       <c r="BD7" s="60">
         <f t="shared" ca="1" si="1"/>
-        <v>45104</v>
+        <v>45218</v>
       </c>
       <c r="BE7" s="60">
         <f ca="1">BD7+1</f>
-        <v>45105</v>
+        <v>45219</v>
       </c>
       <c r="BF7" s="60">
         <f ca="1">BE7+1</f>
-        <v>45106</v>
+        <v>45220</v>
       </c>
       <c r="BG7" s="60">
         <f t="shared" ref="BG7:BK7" ca="1" si="2">BF7+1</f>
-        <v>45107</v>
+        <v>45221</v>
       </c>
       <c r="BH7" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45108</v>
+        <v>45222</v>
       </c>
       <c r="BI7" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45109</v>
+        <v>45223</v>
       </c>
       <c r="BJ7" s="60">
         <f t="shared" ca="1" si="2"/>
-        <v>45110</v>
+        <v>45224</v>
       </c>
       <c r="BK7" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>45111</v>
+        <v>45225</v>
       </c>
     </row>
     <row r="8" spans="1:63" ht="31.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25021,27 +23942,27 @@
       <c r="G8" s="63"/>
       <c r="H8" s="62" t="str">
         <f ca="1">LEFT(TEXT(H7,"ddd"),1)</f>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="I8" s="61" t="str">
         <f ca="1">LEFT(TEXT(I7,"ddd"),1)</f>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="J8" s="61" t="str">
         <f ca="1">LEFT(TEXT(J7,"ddd"),1)</f>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="K8" s="61" t="str">
         <f t="shared" ref="K8:AM8" ca="1" si="3">LEFT(TEXT(K7,"ddd"),1)</f>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="L8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="M8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="N8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -25049,27 +23970,27 @@
       </c>
       <c r="O8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="P8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="Q8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="R8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="S8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="T8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="U8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -25077,27 +23998,27 @@
       </c>
       <c r="V8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="W8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="X8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="Y8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="Z8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AA8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AB8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -25105,27 +24026,27 @@
       </c>
       <c r="AC8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AD8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AE8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AF8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AG8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AH8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AI8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -25133,27 +24054,27 @@
       </c>
       <c r="AJ8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AK8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AL8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AM8" s="61" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AN8" s="61" t="str">
         <f t="shared" ref="AN8:BK8" ca="1" si="4">LEFT(TEXT(AN7,"ddd"),1)</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AO8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AP8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -25161,27 +24082,27 @@
       </c>
       <c r="AQ8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AR8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AS8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="AT8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="AU8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="AV8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="AW8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -25189,27 +24110,27 @@
       </c>
       <c r="AX8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="AY8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="AZ8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BA8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BB8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BC8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BD8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -25217,27 +24138,27 @@
       </c>
       <c r="BE8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>W</v>
+        <v>F</v>
       </c>
       <c r="BF8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>T</v>
+        <v>S</v>
       </c>
       <c r="BG8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>F</v>
+        <v>S</v>
       </c>
       <c r="BH8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>M</v>
       </c>
       <c r="BI8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="BJ8" s="61" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>M</v>
+        <v>W</v>
       </c>
       <c r="BK8" s="59" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -25553,7 +24474,7 @@
       </c>
       <c r="E11" s="46">
         <f ca="1">TODAY()</f>
-        <v>45046</v>
+        <v>45160</v>
       </c>
       <c r="F11" s="16">
         <v>3</v>
@@ -25793,7 +24714,7 @@
       <c r="D12" s="47"/>
       <c r="E12" s="46">
         <f ca="1">TODAY()+5</f>
-        <v>45051</v>
+        <v>45165</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -26035,7 +24956,7 @@
       </c>
       <c r="E13" s="46">
         <f ca="1">TODAY()-3</f>
-        <v>45043</v>
+        <v>45157</v>
       </c>
       <c r="F13" s="16">
         <v>10</v>
@@ -26275,7 +25196,7 @@
       <c r="D14" s="47"/>
       <c r="E14" s="46">
         <f ca="1">TODAY()+20</f>
-        <v>45066</v>
+        <v>45180</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -26517,7 +25438,7 @@
       </c>
       <c r="E15" s="46">
         <f ca="1">TODAY()+6</f>
-        <v>45052</v>
+        <v>45166</v>
       </c>
       <c r="F15" s="16">
         <v>6</v>
@@ -26994,7 +25915,7 @@
       </c>
       <c r="E17" s="46">
         <f ca="1">TODAY()+6</f>
-        <v>45052</v>
+        <v>45166</v>
       </c>
       <c r="F17" s="16">
         <v>13</v>
@@ -27236,7 +26157,7 @@
       </c>
       <c r="E18" s="46">
         <f ca="1">TODAY()+7</f>
-        <v>45053</v>
+        <v>45167</v>
       </c>
       <c r="F18" s="16">
         <v>9</v>
@@ -27478,7 +26399,7 @@
       </c>
       <c r="E19" s="46">
         <f ca="1">TODAY()+15</f>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="F19" s="16">
         <v>11</v>
@@ -27718,7 +26639,7 @@
       <c r="D20" s="47"/>
       <c r="E20" s="46">
         <f ca="1">TODAY()+24</f>
-        <v>45070</v>
+        <v>45184</v>
       </c>
       <c r="F20" s="16">
         <v>1</v>
@@ -27958,7 +26879,7 @@
       <c r="D21" s="47"/>
       <c r="E21" s="46">
         <f ca="1">TODAY()+25</f>
-        <v>45071</v>
+        <v>45185</v>
       </c>
       <c r="F21" s="16">
         <v>24</v>
@@ -28433,7 +27354,7 @@
       <c r="D23" s="47"/>
       <c r="E23" s="46">
         <f ca="1">TODAY()+15</f>
-        <v>45061</v>
+        <v>45175</v>
       </c>
       <c r="F23" s="16">
         <v>4</v>
@@ -28673,7 +27594,7 @@
       <c r="D24" s="47"/>
       <c r="E24" s="46">
         <f ca="1">TODAY()+19</f>
-        <v>45065</v>
+        <v>45179</v>
       </c>
       <c r="F24" s="16">
         <v>14</v>
@@ -28913,7 +27834,7 @@
       <c r="D25" s="47"/>
       <c r="E25" s="46">
         <f ca="1">TODAY()+35</f>
-        <v>45081</v>
+        <v>45195</v>
       </c>
       <c r="F25" s="16">
         <v>6</v>
@@ -29153,7 +28074,7 @@
       <c r="D26" s="47"/>
       <c r="E26" s="46">
         <f ca="1">TODAY()+48</f>
-        <v>45094</v>
+        <v>45208</v>
       </c>
       <c r="F26" s="16">
         <v>3</v>
@@ -29393,7 +28314,7 @@
       <c r="D27" s="47"/>
       <c r="E27" s="46">
         <f ca="1">TODAY()+40</f>
-        <v>45086</v>
+        <v>45200</v>
       </c>
       <c r="F27" s="16">
         <v>19</v>
@@ -29868,7 +28789,7 @@
       <c r="D29" s="47"/>
       <c r="E29" s="46">
         <f ca="1">TODAY()+37</f>
-        <v>45083</v>
+        <v>45197</v>
       </c>
       <c r="F29" s="16">
         <v>15</v>
@@ -30108,7 +29029,7 @@
       <c r="D30" s="47"/>
       <c r="E30" s="46">
         <f ca="1">TODAY()+29</f>
-        <v>45075</v>
+        <v>45189</v>
       </c>
       <c r="F30" s="16">
         <v>5</v>
@@ -30348,7 +29269,7 @@
       <c r="D31" s="47"/>
       <c r="E31" s="46">
         <f ca="1">TODAY()+80</f>
-        <v>45126</v>
+        <v>45240</v>
       </c>
       <c r="F31" s="16">
         <v>5</v>
@@ -31376,17 +30297,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:BK34">
-    <cfRule type="expression" dxfId="9" priority="78">
+    <cfRule type="expression" dxfId="10" priority="78">
       <formula>H$7&lt;=Today</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9:BK34">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="11" stopIfTrue="1">
       <formula>AND(H$7&gt;=$E9+1,H$7&lt;=$E9+$F9-2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:BK8">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="8" priority="1">
       <formula>H$7&lt;=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31474,23 +30395,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -31794,22 +30704,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72214B61-5049-4980-A646-5954FFE9EB71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B0F2ED-3690-4B58-8A58-9F445988C35C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -31836,9 +30753,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0B0F2ED-3690-4B58-8A58-9F445988C35C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72214B61-5049-4980-A646-5954FFE9EB71}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
